--- a/HW4/dataset2_q2_excel.xlsx
+++ b/HW4/dataset2_q2_excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadh\Desktop\CS625 - Maaz\CS625-HW4\Files\dataset2_q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8FC518A5-52A0-473F-BA41-632C22A257CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA169C3-1AEE-4A3D-8AD8-4950F54D682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_data" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>Total Deaths</t>
   </si>
   <si>
     <t>Diseases of heart</t>
@@ -228,11 +225,20 @@
   <si>
     <t>Wyoming</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Age-Adjusted Death Rates for Diseases</t>
+  </si>
+  <si>
+    <t>Age-Adjusted Death Rates for Accidents</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +811,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deaths By States</a:t>
+              <a:t>Age Adjusted Death</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> By States</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -855,7 +869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deaths due to diseases/natural deaths</c:v>
+                  <c:v>Age-Adjusted Death Rates for Diseases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1236,7 +1250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deaths due to accidents/unnatural deaths</c:v>
+                  <c:v>Age-Adjusted Death Rates for Accidents</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1769,7 +1783,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Deaths in Thousands</a:t>
+                  <a:t>Age-Adjusted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Death </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Rates per 100,000 Population</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1949,7 +1971,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deaths Due to Diseases/Natural Deaths in Different States</a:t>
+              <a:t>Ag</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>e-Adjusted </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Death</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Due to Diseases/Natural Deaths in Different States</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2532,7 +2570,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deaths due to diseases/natural deaths in Thousands</a:t>
+                  <a:t>Age-Adjusted Death Rates for Diseases Deaths per 100,000 Population</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2681,8 +2719,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Deaths Due to Accidents/Unnatural deaths</a:t>
+              <a:t>Age-Adjusted Death</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Due to Accidents/Unnatural Deaths in Different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> States</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3264,7 +3315,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deaths due to accidents/unnatural deaths in Thousands</a:t>
+                  <a:t>Age-Adjusted Death Rates for Accidental Deaths per 100,000 Population</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5482,11 +5533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5502,60 +5553,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>952.4</v>
@@ -5611,7 +5662,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>775.9</v>
@@ -5664,7 +5715,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>724.1</v>
@@ -5720,7 +5771,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>888.9</v>
@@ -5776,7 +5827,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>700.2</v>
@@ -5832,7 +5883,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>716.8</v>
@@ -5888,7 +5939,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>714.8</v>
@@ -5944,7 +5995,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>784</v>
@@ -6000,7 +6051,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>892.9</v>
@@ -6056,7 +6107,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>711.3</v>
@@ -6112,7 +6163,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>858.8</v>
@@ -6168,7 +6219,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>629.6</v>
@@ -6221,7 +6272,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>747.4</v>
@@ -6274,7 +6325,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>781.1</v>
@@ -6330,7 +6381,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>847.6</v>
@@ -6387,18 +6438,18 @@
         <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>730.3</v>
@@ -6449,13 +6500,13 @@
         <v>69.899999999999906</v>
       </c>
       <c r="AB17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC17">
         <v>679</v>
       </c>
       <c r="AH17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI17">
         <v>136.1</v>
@@ -6463,7 +6514,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>794.7</v>
@@ -6517,13 +6568,13 @@
         <v>87.699999999999903</v>
       </c>
       <c r="AB18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC18">
         <v>657.6</v>
       </c>
       <c r="AH18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI18">
         <v>130.69999999999999</v>
@@ -6531,7 +6582,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>915.2</v>
@@ -6585,13 +6636,13 @@
         <v>111.19999999999899</v>
       </c>
       <c r="AB19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC19">
         <v>650.9</v>
       </c>
       <c r="AH19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI19">
         <v>125.3</v>
@@ -6599,7 +6650,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>930.1</v>
@@ -6653,13 +6704,13 @@
         <v>123.99999999999901</v>
       </c>
       <c r="AB20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC20">
         <v>648.79999999999995</v>
       </c>
       <c r="AH20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI20">
         <v>123.99999999999901</v>
@@ -6667,7 +6718,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>775</v>
@@ -6718,13 +6769,13 @@
         <v>74.7</v>
       </c>
       <c r="AB21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC21">
         <v>645.79999999999995</v>
       </c>
       <c r="AH21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21">
         <v>119.4</v>
@@ -6732,7 +6783,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>793</v>
@@ -6786,13 +6837,13 @@
         <v>69.900000000000006</v>
       </c>
       <c r="AB22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC22">
         <v>644.5</v>
       </c>
       <c r="AH22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI22">
         <v>119</v>
@@ -6800,7 +6851,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>719.7</v>
@@ -6854,13 +6905,13 @@
         <v>52.1</v>
       </c>
       <c r="AB23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC23">
         <v>643.9</v>
       </c>
       <c r="AH23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI23">
         <v>118</v>
@@ -6868,7 +6919,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>813.7</v>
@@ -6922,13 +6973,13 @@
         <v>76.099999999999994</v>
       </c>
       <c r="AB24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC24">
         <v>632</v>
       </c>
       <c r="AH24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24">
         <v>116</v>
@@ -6936,7 +6987,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>672.8</v>
@@ -6990,13 +7041,13 @@
         <v>66.2</v>
       </c>
       <c r="AB25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC25">
         <v>627</v>
       </c>
       <c r="AH25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI25">
         <v>114.6</v>
@@ -7004,7 +7055,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>961.2</v>
@@ -7058,13 +7109,13 @@
         <v>136.1</v>
       </c>
       <c r="AB26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC26">
         <v>605.69999999999902</v>
       </c>
       <c r="AH26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI26">
         <v>112.9</v>
@@ -7072,7 +7123,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>848.3</v>
@@ -7126,13 +7177,13 @@
         <v>102.1</v>
       </c>
       <c r="AB27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC27">
         <v>603.4</v>
       </c>
       <c r="AH27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI27">
         <v>112.3</v>
@@ -7140,7 +7191,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>781.4</v>
@@ -7191,13 +7242,13 @@
         <v>119</v>
       </c>
       <c r="AB28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC28">
         <v>594.5</v>
       </c>
       <c r="AH28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI28">
         <v>111.899999999999</v>
@@ -7205,7 +7256,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>735.3</v>
@@ -7259,13 +7310,13 @@
         <v>72.7</v>
       </c>
       <c r="AB29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC29">
         <v>587.5</v>
       </c>
       <c r="AH29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI29">
         <v>111.19999999999899</v>
@@ -7273,7 +7324,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>843.7</v>
@@ -7327,13 +7378,13 @@
         <v>107.3</v>
       </c>
       <c r="AB30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC30">
         <v>585.9</v>
       </c>
       <c r="AH30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30">
         <v>108.19999999999899</v>
@@ -7341,7 +7392,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>724.9</v>
@@ -7392,13 +7443,13 @@
         <v>61.9</v>
       </c>
       <c r="AB31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC31">
         <v>584.9</v>
       </c>
       <c r="AH31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31">
         <v>107.3</v>
@@ -7406,7 +7457,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>736.6</v>
@@ -7460,13 +7511,13 @@
         <v>55</v>
       </c>
       <c r="AB32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC32">
         <v>580.9</v>
       </c>
       <c r="AH32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI32">
         <v>105.8</v>
@@ -7474,7 +7525,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>775.5</v>
@@ -7528,13 +7579,13 @@
         <v>130.69999999999999</v>
       </c>
       <c r="AB33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33">
         <v>570.69999999999902</v>
       </c>
       <c r="AH33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI33">
         <v>102.1</v>
@@ -7542,7 +7593,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>701.2</v>
@@ -7596,13 +7647,13 @@
         <v>50.7</v>
       </c>
       <c r="AB34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC34">
         <v>558.29999999999995</v>
       </c>
       <c r="AH34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI34">
         <v>98.199999999999903</v>
@@ -7610,7 +7661,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>843.6</v>
@@ -7664,13 +7715,13 @@
         <v>98.1</v>
       </c>
       <c r="AB35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC35">
         <v>556.4</v>
       </c>
       <c r="AH35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI35">
         <v>98.1</v>
@@ -7678,7 +7729,7 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>726.9</v>
@@ -7726,13 +7777,13 @@
         <v>77.699999999999903</v>
       </c>
       <c r="AB36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC36">
         <v>555.79999999999995</v>
       </c>
       <c r="AH36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI36">
         <v>95.6</v>
@@ -7740,7 +7791,7 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>840.8</v>
@@ -7794,13 +7845,13 @@
         <v>78.599999999999994</v>
       </c>
       <c r="AB37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC37">
         <v>551.9</v>
       </c>
       <c r="AH37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI37">
         <v>93.899999999999906</v>
@@ -7808,7 +7859,7 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>920.4</v>
@@ -7862,13 +7913,13 @@
         <v>112.9</v>
       </c>
       <c r="AB38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC38">
         <v>550.4</v>
       </c>
       <c r="AH38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI38">
         <v>91.999999999999901</v>
@@ -7876,7 +7927,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>770.5</v>
@@ -7930,13 +7981,13 @@
         <v>82.3</v>
       </c>
       <c r="AB39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC39">
         <v>549.19999999999902</v>
       </c>
       <c r="AH39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI39">
         <v>87.699999999999903</v>
@@ -7944,7 +7995,7 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>800.8</v>
@@ -7998,13 +8049,13 @@
         <v>80.3</v>
       </c>
       <c r="AB40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC40">
         <v>548.79999999999995</v>
       </c>
       <c r="AH40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI40">
         <v>84.6</v>
@@ -8012,7 +8063,7 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>747.4</v>
@@ -8066,13 +8117,13 @@
         <v>60.1</v>
       </c>
       <c r="AB41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC41">
         <v>545.20000000000005</v>
       </c>
       <c r="AH41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI41">
         <v>84.2</v>
@@ -8080,7 +8131,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>864.6</v>
@@ -8134,13 +8185,13 @@
         <v>112.3</v>
       </c>
       <c r="AB42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC42">
         <v>541.099999999999</v>
       </c>
       <c r="AH42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI42">
         <v>83.7</v>
@@ -8148,7 +8199,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>740.5</v>
@@ -8199,13 +8250,13 @@
         <v>105.8</v>
       </c>
       <c r="AB43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC43">
         <v>530.19999999999902</v>
       </c>
       <c r="AH43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI43">
         <v>82.3</v>
@@ -8213,7 +8264,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>908.3</v>
@@ -8267,13 +8318,13 @@
         <v>114.6</v>
       </c>
       <c r="AB44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC44">
         <v>530</v>
       </c>
       <c r="AH44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI44">
         <v>80.3</v>
@@ -8281,7 +8332,7 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>783.9</v>
@@ -8335,13 +8386,13 @@
         <v>84.6</v>
       </c>
       <c r="AB45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC45">
         <v>528.1</v>
       </c>
       <c r="AH45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI45">
         <v>80</v>
@@ -8349,7 +8400,7 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>706.3</v>
@@ -8403,13 +8454,13 @@
         <v>72.3</v>
       </c>
       <c r="AB46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC46">
         <v>525.19999999999902</v>
       </c>
       <c r="AH46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI46">
         <v>79.3</v>
@@ -8417,7 +8468,7 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>721.7</v>
@@ -8465,13 +8516,13 @@
         <v>79.3</v>
       </c>
       <c r="AB47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC47">
         <v>523.19999999999902</v>
       </c>
       <c r="AH47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI47">
         <v>79.099999999999994</v>
@@ -8479,7 +8530,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>781</v>
@@ -8533,13 +8584,13 @@
         <v>75.099999999999994</v>
       </c>
       <c r="AB48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC48">
         <v>521.599999999999</v>
       </c>
       <c r="AH48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI48">
         <v>78.599999999999994</v>
@@ -8547,7 +8598,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>722.5</v>
@@ -8601,13 +8652,13 @@
         <v>76.599999999999994</v>
       </c>
       <c r="AB49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC49">
         <v>518.099999999999</v>
       </c>
       <c r="AH49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI49">
         <v>77.699999999999903</v>
@@ -8615,7 +8666,7 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>941.3</v>
@@ -8669,13 +8720,13 @@
         <v>118</v>
       </c>
       <c r="AB50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC50">
         <v>515.19999999999902</v>
       </c>
       <c r="AH50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI50">
         <v>76.599999999999994</v>
@@ -8683,7 +8734,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>746.6</v>
@@ -8737,13 +8788,13 @@
         <v>79.099999999999994</v>
       </c>
       <c r="AB51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC51">
         <v>514.69999999999902</v>
       </c>
       <c r="AH51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI51">
         <v>76.099999999999994</v>
@@ -8751,7 +8802,7 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>822.8</v>
@@ -8799,13 +8850,13 @@
         <v>125.3</v>
       </c>
       <c r="AB52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC52">
         <v>512.4</v>
       </c>
       <c r="AH52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI52">
         <v>75.099999999999994</v>
@@ -8813,13 +8864,13 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC53">
         <v>511.1</v>
       </c>
       <c r="AH53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI53">
         <v>74.7</v>
@@ -8827,13 +8878,13 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC54">
         <v>509.4</v>
       </c>
       <c r="AH54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI54">
         <v>72.7</v>
@@ -8841,13 +8892,13 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC55">
         <v>506.79999999999899</v>
       </c>
       <c r="AH55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI55">
         <v>72.3</v>
@@ -8855,13 +8906,13 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC56">
         <v>506.2</v>
       </c>
       <c r="AH56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI56">
         <v>69.900000000000006</v>
@@ -8869,13 +8920,13 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC57">
         <v>505.4</v>
       </c>
       <c r="AH57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI57">
         <v>69.899999999999906</v>
@@ -8883,13 +8934,13 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC58">
         <v>503.99999999999898</v>
       </c>
       <c r="AH58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI58">
         <v>69</v>
@@ -8897,13 +8948,13 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC59">
         <v>500.7</v>
       </c>
       <c r="AH59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI59">
         <v>67.699999999999903</v>
@@ -8911,13 +8962,13 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC60">
         <v>497.9</v>
       </c>
       <c r="AH60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI60">
         <v>66.2</v>
@@ -8925,13 +8976,13 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC61">
         <v>495.599999999999</v>
       </c>
       <c r="AH61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI61">
         <v>61.9</v>
@@ -8939,13 +8990,13 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC62">
         <v>486.9</v>
       </c>
       <c r="AH62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI62">
         <v>61.6</v>
@@ -8953,13 +9004,13 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC63">
         <v>477.79999999999899</v>
       </c>
       <c r="AH63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI63">
         <v>60.1</v>
@@ -8967,13 +9018,13 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC64">
         <v>470.99999999999898</v>
       </c>
       <c r="AH64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI64">
         <v>57.4</v>
@@ -8981,13 +9032,13 @@
     </row>
     <row r="65" spans="28:35" x14ac:dyDescent="0.3">
       <c r="AB65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC65">
         <v>446</v>
       </c>
       <c r="AH65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI65">
         <v>55</v>
@@ -8995,13 +9046,13 @@
     </row>
     <row r="66" spans="28:35" x14ac:dyDescent="0.3">
       <c r="AB66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC66">
         <v>439.1</v>
       </c>
       <c r="AH66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI66">
         <v>52.1</v>
@@ -9009,13 +9060,13 @@
     </row>
     <row r="67" spans="28:35" x14ac:dyDescent="0.3">
       <c r="AB67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC67">
         <v>415.7</v>
       </c>
       <c r="AH67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI67">
         <v>50.7</v>
@@ -9026,6 +9077,7 @@
     <sortCondition descending="1" ref="AI16:AI67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>